--- a/zeitgeist/applications/wellnesswelt_admin/_material/wellnesswelt.xlsx
+++ b/zeitgeist/applications/wellnesswelt_admin/_material/wellnesswelt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="5205" windowHeight="5580" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="5205" windowHeight="5580" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Phase 1" sheetId="2" r:id="rId4"/>
     <sheet name="Phase 2" sheetId="3" r:id="rId5"/>
     <sheet name="Phase 3" sheetId="6" r:id="rId6"/>
+    <sheet name="Finanzierungskonzept 1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="180">
   <si>
     <t>Funktionalität</t>
   </si>
@@ -109,9 +110,6 @@
   <si>
     <t>Adressen in die Datenbank importieren
 Vollständigkeit verifizieren</t>
-  </si>
-  <si>
-    <t>Aufwand (MT)</t>
   </si>
   <si>
     <t>Informationsarchitektur planen
@@ -603,12 +601,96 @@
   <si>
     <t>Q1 2009</t>
   </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Entwickler</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>Planung &amp; Qualitätskontrolle</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Aufwand</t>
+  </si>
+  <si>
+    <t>Rolle</t>
+  </si>
+  <si>
+    <t>Monat</t>
+  </si>
+  <si>
+    <t>Anmerkungen</t>
+  </si>
+  <si>
+    <t>Arbeit an Phase</t>
+  </si>
+  <si>
+    <t>Wellnesswelt geht online</t>
+  </si>
+  <si>
+    <t>Nur Bugfixes &amp; QA</t>
+  </si>
+  <si>
+    <t>Aufwand
+Entwicklung (in €)</t>
+  </si>
+  <si>
+    <t>Zahlung (in €)</t>
+  </si>
+  <si>
+    <t>Beschäftigungsgrad/Phase</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>Offene Aufwände</t>
+  </si>
+  <si>
+    <t>3+</t>
+  </si>
+  <si>
+    <t>4+</t>
+  </si>
+  <si>
+    <t>5+</t>
+  </si>
+  <si>
+    <t>6+</t>
+  </si>
+  <si>
+    <t>Beteiligung (in € gemäß %-Satz)</t>
+  </si>
+  <si>
+    <t>%-Satz Beteiligung</t>
+  </si>
+  <si>
+    <t>Neue Phase</t>
+  </si>
+  <si>
+    <t>WW erwarteter
+Umsatz (in €)</t>
+  </si>
+  <si>
+    <t>Überarbeitungsphase</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,8 +741,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -769,8 +858,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -833,11 +934,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -880,25 +1021,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -961,9 +1090,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1101,9 +1227,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1203,8 +1326,77 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Dezimal" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1508,8 +1700,8 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="84" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="95" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="95" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="89" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="89" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" customWidth="1"/>
@@ -1517,696 +1709,696 @@
     <col min="10" max="10" width="50.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="96" t="s">
+    <row r="2" spans="2:11" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="96" t="s">
-        <v>77</v>
+      <c r="C2" s="90" t="s">
+        <v>76</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="2:11" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="92">
+        <v>1</v>
+      </c>
+      <c r="E3" s="93">
+        <v>2</v>
+      </c>
+      <c r="F3" s="43">
+        <v>1</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="95">
+        <v>1</v>
+      </c>
+      <c r="J3" s="96" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="92">
+        <v>1</v>
+      </c>
+      <c r="E4" s="93">
+        <v>2</v>
+      </c>
+      <c r="F4" s="43">
+        <v>1</v>
+      </c>
+      <c r="I4" s="98">
+        <v>2</v>
+      </c>
+      <c r="J4" s="99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="92">
+        <v>1</v>
+      </c>
+      <c r="E5" s="93">
+        <v>2</v>
+      </c>
+      <c r="F5" s="58">
+        <v>0</v>
+      </c>
+      <c r="I5" s="100">
+        <v>3</v>
+      </c>
+      <c r="J5" s="101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="92">
+        <v>1</v>
+      </c>
+      <c r="E6" s="97">
+        <v>3</v>
+      </c>
+      <c r="F6" s="58">
+        <v>0</v>
+      </c>
+      <c r="H6" s="102"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="102"/>
+    </row>
+    <row r="7" spans="2:11" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="92">
+        <v>1</v>
+      </c>
+      <c r="E7" s="97">
+        <v>1</v>
+      </c>
+      <c r="F7" s="58">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="2:11" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="92">
+        <v>1</v>
+      </c>
+      <c r="E8" s="97">
+        <v>1</v>
+      </c>
+      <c r="F8" s="43">
+        <v>1</v>
+      </c>
+      <c r="H8" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="2:11" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="98">
-        <v>1</v>
-      </c>
-      <c r="E3" s="99">
+      <c r="I8" s="104">
+        <v>1</v>
+      </c>
+      <c r="J8" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="102"/>
+    </row>
+    <row r="9" spans="2:11" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="92">
+        <v>1</v>
+      </c>
+      <c r="E9" s="97">
+        <v>1</v>
+      </c>
+      <c r="F9" s="43">
+        <v>1</v>
+      </c>
+      <c r="I9" s="64">
         <v>2</v>
       </c>
-      <c r="F3" s="48">
-        <v>1</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="101">
-        <v>1</v>
-      </c>
-      <c r="J3" s="102" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="100" t="s">
+      <c r="J9" s="106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="92">
+        <v>1</v>
+      </c>
+      <c r="E10" s="97">
+        <v>1</v>
+      </c>
+      <c r="F10" s="43">
+        <v>1</v>
+      </c>
+      <c r="I10" s="63">
+        <v>3</v>
+      </c>
+      <c r="J10" s="107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="92">
+        <v>1</v>
+      </c>
+      <c r="E11" s="97">
+        <v>1</v>
+      </c>
+      <c r="F11" s="43">
+        <v>1</v>
+      </c>
+      <c r="H11" s="102"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="102"/>
+    </row>
+    <row r="12" spans="2:11" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="92">
+        <v>1</v>
+      </c>
+      <c r="E12" s="97">
+        <v>1</v>
+      </c>
+      <c r="F12" s="44">
+        <v>2</v>
+      </c>
+      <c r="H12" s="102"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="102"/>
+    </row>
+    <row r="13" spans="2:11" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="92">
+        <v>1</v>
+      </c>
+      <c r="E13" s="97">
+        <v>1</v>
+      </c>
+      <c r="F13" s="62">
         <v>4</v>
       </c>
-      <c r="C4" s="100" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="98">
-        <v>1</v>
-      </c>
-      <c r="E4" s="99">
+      <c r="I13" s="103"/>
+      <c r="J13" s="102"/>
+    </row>
+    <row r="14" spans="2:11" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="92">
+        <v>1</v>
+      </c>
+      <c r="E14" s="97">
+        <v>1</v>
+      </c>
+      <c r="F14" s="44">
         <v>2</v>
       </c>
-      <c r="F4" s="48">
-        <v>1</v>
-      </c>
-      <c r="I4" s="104">
+      <c r="H14" s="102"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+    </row>
+    <row r="15" spans="2:11" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="92">
+        <v>1</v>
+      </c>
+      <c r="E15" s="97">
+        <v>1</v>
+      </c>
+      <c r="F15" s="44">
         <v>2</v>
       </c>
-      <c r="J4" s="105" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="51" t="s">
+    </row>
+    <row r="16" spans="2:11" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="94" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="108">
         <v>2</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="98">
-        <v>1</v>
-      </c>
-      <c r="E5" s="99">
+      <c r="E16" s="97">
+        <v>1</v>
+      </c>
+      <c r="F16" s="44">
         <v>2</v>
       </c>
-      <c r="F5" s="63">
-        <v>0</v>
-      </c>
-      <c r="I5" s="106">
+    </row>
+    <row r="17" spans="2:6" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="108">
+        <v>2</v>
+      </c>
+      <c r="E17" s="97">
+        <v>1</v>
+      </c>
+      <c r="F17" s="62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="108">
+        <v>2</v>
+      </c>
+      <c r="E18" s="109">
         <v>3</v>
       </c>
-      <c r="J5" s="107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="100" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="98">
-        <v>1</v>
-      </c>
-      <c r="E6" s="103">
+      <c r="F18" s="62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="108">
+        <v>2</v>
+      </c>
+      <c r="E19" s="109">
         <v>3</v>
       </c>
-      <c r="F6" s="63">
-        <v>0</v>
-      </c>
-      <c r="H6" s="108"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="108"/>
-    </row>
-    <row r="7" spans="2:11" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="98">
-        <v>1</v>
-      </c>
-      <c r="E7" s="103">
-        <v>1</v>
-      </c>
-      <c r="F7" s="63">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="2:11" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="100" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="98">
-        <v>1</v>
-      </c>
-      <c r="E8" s="103">
-        <v>1</v>
-      </c>
-      <c r="F8" s="48">
-        <v>1</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="I8" s="110">
-        <v>1</v>
-      </c>
-      <c r="J8" s="111" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="108"/>
-    </row>
-    <row r="9" spans="2:11" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="51" t="s">
+      <c r="F19" s="62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="108">
+        <v>2</v>
+      </c>
+      <c r="E20" s="109">
         <v>3</v>
       </c>
-      <c r="C9" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="98">
-        <v>1</v>
-      </c>
-      <c r="E9" s="103">
-        <v>1</v>
-      </c>
-      <c r="F9" s="48">
-        <v>1</v>
-      </c>
-      <c r="I9" s="69">
+      <c r="F20" s="62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="108">
         <v>2</v>
       </c>
-      <c r="J9" s="112" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="98">
-        <v>1</v>
-      </c>
-      <c r="E10" s="103">
-        <v>1</v>
-      </c>
-      <c r="F10" s="48">
-        <v>1</v>
-      </c>
-      <c r="I10" s="68">
+      <c r="E21" s="109">
         <v>3</v>
       </c>
-      <c r="J10" s="113" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="98">
-        <v>1</v>
-      </c>
-      <c r="E11" s="103">
-        <v>1</v>
-      </c>
-      <c r="F11" s="48">
-        <v>1</v>
-      </c>
-      <c r="H11" s="108"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="108"/>
-    </row>
-    <row r="12" spans="2:11" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="100" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="100" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="98">
-        <v>1</v>
-      </c>
-      <c r="E12" s="103">
-        <v>1</v>
-      </c>
-      <c r="F12" s="49">
+      <c r="F21" s="62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B22" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="108">
         <v>2</v>
       </c>
-      <c r="H12" s="108"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="108"/>
-    </row>
-    <row r="13" spans="2:11" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="98">
-        <v>1</v>
-      </c>
-      <c r="E13" s="103">
-        <v>1</v>
-      </c>
-      <c r="F13" s="67">
+      <c r="E22" s="109">
+        <v>3</v>
+      </c>
+      <c r="F22" s="62">
         <v>4</v>
       </c>
-      <c r="I13" s="109"/>
-      <c r="J13" s="108"/>
-    </row>
-    <row r="14" spans="2:11" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="98">
-        <v>1</v>
-      </c>
-      <c r="E14" s="103">
-        <v>1</v>
-      </c>
-      <c r="F14" s="49">
+    </row>
+    <row r="23" spans="2:6" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B23" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="108">
         <v>2</v>
       </c>
-      <c r="H14" s="108"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-    </row>
-    <row r="15" spans="2:11" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="98">
-        <v>1</v>
-      </c>
-      <c r="E15" s="103">
-        <v>1</v>
-      </c>
-      <c r="F15" s="49">
+      <c r="E23" s="93">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="100" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="100" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="114">
+      <c r="F23" s="62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B24" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="108">
         <v>2</v>
       </c>
-      <c r="E16" s="103">
-        <v>1</v>
-      </c>
-      <c r="F16" s="49">
+      <c r="E24" s="97">
+        <v>1</v>
+      </c>
+      <c r="F24" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B25" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="108">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="114">
-        <v>2</v>
-      </c>
-      <c r="E17" s="103">
-        <v>1</v>
-      </c>
-      <c r="F17" s="67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="114">
-        <v>2</v>
-      </c>
-      <c r="E18" s="115">
+      <c r="E25" s="97">
+        <v>1</v>
+      </c>
+      <c r="F25" s="45">
         <v>3</v>
       </c>
-      <c r="F18" s="67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="114">
-        <v>2</v>
-      </c>
-      <c r="E19" s="115">
+    </row>
+    <row r="26" spans="2:6" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B26" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="110">
         <v>3</v>
       </c>
-      <c r="F19" s="67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="100" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="114">
-        <v>2</v>
-      </c>
-      <c r="E20" s="115">
-        <v>3</v>
-      </c>
-      <c r="F20" s="67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="114">
-        <v>2</v>
-      </c>
-      <c r="E21" s="115">
-        <v>3</v>
-      </c>
-      <c r="F21" s="67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="100" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="114">
-        <v>2</v>
-      </c>
-      <c r="E22" s="115">
-        <v>3</v>
-      </c>
-      <c r="F22" s="67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="114">
-        <v>2</v>
-      </c>
-      <c r="E23" s="99">
-        <v>2</v>
-      </c>
-      <c r="F23" s="67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="114">
-        <v>2</v>
-      </c>
-      <c r="E24" s="103">
-        <v>1</v>
-      </c>
-      <c r="F24" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="114">
-        <v>2</v>
-      </c>
-      <c r="E25" s="103">
-        <v>1</v>
-      </c>
-      <c r="F25" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="100" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="100" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="116">
-        <v>3</v>
-      </c>
-      <c r="E26" s="99">
+      <c r="E26" s="93">
         <v>2</v>
       </c>
       <c r="F26" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:6" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="51" t="s">
+    <row r="27" spans="2:6" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B27" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="110">
+        <v>3</v>
+      </c>
+      <c r="E27" s="93">
+        <v>2</v>
+      </c>
+      <c r="F27" s="62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B28" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="116">
+      <c r="C28" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="110">
         <v>3</v>
       </c>
-      <c r="E27" s="99">
+      <c r="E28" s="97">
+        <v>1</v>
+      </c>
+      <c r="F28" s="74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B29" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="110">
+        <v>3</v>
+      </c>
+      <c r="E29" s="97">
+        <v>1</v>
+      </c>
+      <c r="F29" s="74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B30" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="110">
+        <v>3</v>
+      </c>
+      <c r="E30" s="93">
         <v>2</v>
       </c>
-      <c r="F27" s="67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="100" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="116">
+      <c r="F30" s="74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="110">
         <v>3</v>
       </c>
-      <c r="E28" s="103">
-        <v>1</v>
-      </c>
-      <c r="F28" s="79">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="116">
+      <c r="E31" s="93">
+        <v>2</v>
+      </c>
+      <c r="F31" s="75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="110">
         <v>3</v>
       </c>
-      <c r="E29" s="103">
-        <v>1</v>
-      </c>
-      <c r="F29" s="79">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="116">
+      <c r="E32" s="93">
+        <v>2</v>
+      </c>
+      <c r="F32" s="75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="110">
         <v>3</v>
       </c>
-      <c r="E30" s="99">
+      <c r="E33" s="93">
         <v>2</v>
       </c>
-      <c r="F30" s="79">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="108" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="108" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="116">
+      <c r="F33" s="75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="110">
         <v>3</v>
       </c>
-      <c r="E31" s="99">
+      <c r="E34" s="93">
         <v>2</v>
       </c>
-      <c r="F31" s="80">
+      <c r="F34" s="75">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:6" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="100" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="116">
+    <row r="35" spans="2:7" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="110">
         <v>3</v>
       </c>
-      <c r="E32" s="99">
-        <v>2</v>
-      </c>
-      <c r="F32" s="80">
+      <c r="E35" s="109">
+        <v>3</v>
+      </c>
+      <c r="F35" s="75">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="108" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="108" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="116">
-        <v>3</v>
-      </c>
-      <c r="E33" s="99">
-        <v>2</v>
-      </c>
-      <c r="F33" s="80">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="100" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="100" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="116">
-        <v>3</v>
-      </c>
-      <c r="E34" s="99">
-        <v>2</v>
-      </c>
-      <c r="F34" s="80">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="108" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="108" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="116">
-        <v>3</v>
-      </c>
-      <c r="E35" s="115">
-        <v>3</v>
-      </c>
-      <c r="F35" s="80">
-        <v>6</v>
-      </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="2:7" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
+    <row r="36" spans="2:7" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="2:7" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B37" s="108"/>
-      <c r="C37" s="108"/>
+    <row r="37" spans="2:7" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="2:7" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
+    <row r="38" spans="2:7" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="2:7" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="D39" s="98"/>
-      <c r="E39" s="103"/>
+    <row r="39" spans="2:7" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="D39" s="92"/>
+      <c r="E39" s="97"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="2:7" s="51" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="D40" s="98"/>
-      <c r="E40" s="103"/>
+    <row r="40" spans="2:7" s="46" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="D40" s="92"/>
+      <c r="E40" s="97"/>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
     </row>
   </sheetData>
   <sortState ref="B3:E44">
@@ -2221,155 +2413,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="27" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="30" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" style="27" customWidth="1"/>
     <col min="5" max="5" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="31"/>
+    <col min="6" max="6" width="21.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="27"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="30">
+      <c r="B3" s="58">
+        <v>0</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="75">
+      <c r="B4" s="43">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" s="28" customFormat="1" ht="75">
+      <c r="B5" s="44">
+        <v>2</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="116" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="75">
+      <c r="B6" s="45">
+        <v>3</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="117" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="75">
+      <c r="B7" s="65">
+        <v>4</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="118" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="60">
+      <c r="B8" s="68">
+        <v>5</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="119" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="112" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="120">
+      <c r="B9" s="71">
+        <v>6</v>
+      </c>
+      <c r="C9" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="38" t="s">
+      <c r="D9" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="120" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="113" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="30">
-      <c r="B3" s="63">
-        <v>0</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="120" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="64" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="75">
-      <c r="B4" s="48">
-        <v>1</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="121" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" s="32" customFormat="1" ht="75">
-      <c r="B5" s="49">
-        <v>2</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="122" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="75">
-      <c r="B6" s="50">
-        <v>3</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="123" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="75">
-      <c r="B7" s="70">
-        <v>4</v>
-      </c>
-      <c r="C7" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="124" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="117" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="60">
-      <c r="B8" s="73">
-        <v>5</v>
-      </c>
-      <c r="C8" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="125" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="118" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="120">
-      <c r="B9" s="76">
-        <v>6</v>
-      </c>
-      <c r="C9" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="126" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="119" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2380,26 +2572,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F7"/>
+  <dimension ref="B1:F15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="50.25" customHeight="1">
-      <c r="B1" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
+      <c r="B1" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="9" t="s">
@@ -2409,95 +2601,140 @@
         <v>25</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="45">
+      <c r="B3" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="45">
-      <c r="B3" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="30" t="s">
+    <row r="4" spans="2:6">
+      <c r="B4" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="C4" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="54" t="s">
+    <row r="5" spans="2:6" ht="45">
+      <c r="B5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="2:6" s="11" customFormat="1" ht="30">
+      <c r="B6" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="50" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="45">
-      <c r="B5" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="46"/>
-    </row>
-    <row r="6" spans="2:6" s="11" customFormat="1" ht="30">
-      <c r="B6" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6" ht="45">
-      <c r="B7" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>66</v>
-      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="124" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="125" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="128" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="12"/>
+      <c r="C15" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F13"/>
+  <dimension ref="B1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="27" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" customFormat="1" ht="50.25" customHeight="1">
-      <c r="B1" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="91"/>
+      <c r="B1" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="9" t="s">
@@ -2507,89 +2744,89 @@
         <v>25</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="2:6" ht="30">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="36">
+        <v>3</v>
+      </c>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="2:6" ht="30">
+      <c r="B4" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D4" s="51">
         <v>3</v>
       </c>
-      <c r="E3" s="41"/>
-    </row>
-    <row r="4" spans="2:6" ht="30">
-      <c r="B4" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="53" t="s">
+      <c r="E4" s="52"/>
+    </row>
+    <row r="5" spans="2:6" ht="30">
+      <c r="B5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="36">
+        <v>1</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30">
+      <c r="B6" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="51">
+        <v>2</v>
+      </c>
+      <c r="E6" s="52"/>
+    </row>
+    <row r="7" spans="2:6" ht="60">
+      <c r="B7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="36">
+        <v>1</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="56">
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="51">
         <v>3</v>
       </c>
-      <c r="E4" s="57"/>
-    </row>
-    <row r="5" spans="2:6" ht="30">
-      <c r="B5" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="40">
-        <v>14</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="30">
-      <c r="B6" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="56">
-        <v>4</v>
-      </c>
-      <c r="E6" s="57"/>
-    </row>
-    <row r="7" spans="2:6" ht="60">
-      <c r="B7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="40">
-        <v>8</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="56">
-        <v>2</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>85</v>
+      <c r="E8" s="52" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -2597,33 +2834,53 @@
       <c r="C9" s="14"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="2:6" s="18" customFormat="1">
-      <c r="B10" s="19"/>
-      <c r="C10" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="23">
-        <f>SUM(D3:D8)</f>
-        <v>34</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="2:6" s="17" customFormat="1">
-      <c r="B11" s="21"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="18"/>
+    <row r="10" spans="2:6" s="17" customFormat="1">
+      <c r="B10" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="123"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="2:6" s="16" customFormat="1">
+      <c r="B11" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="126">
+        <v>1</v>
+      </c>
+      <c r="D11" s="121"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="13"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="129">
+        <v>1</v>
+      </c>
+      <c r="D12" s="122"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="13"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="125" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="126">
+        <v>1</v>
+      </c>
+      <c r="D13" s="121"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="128" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="129">
+        <v>1</v>
+      </c>
+      <c r="D14" s="122"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2632,10 +2889,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F12"/>
+  <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2643,121 +2900,143 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="50.25" customHeight="1">
-      <c r="B1" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="88"/>
+      <c r="B1" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="83"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="2:6" s="11" customFormat="1">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="44" t="s">
-        <v>28</v>
+      <c r="D2" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="2:6" ht="45">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="22">
+        <v>1</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="45">
+      <c r="B4" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="26">
-        <v>14</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="45">
-      <c r="B4" s="58" t="s">
+      <c r="C4" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="D4" s="55">
+        <v>2</v>
+      </c>
+      <c r="E4" s="56"/>
+    </row>
+    <row r="5" spans="2:6" ht="30">
+      <c r="B5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="60">
-        <v>3</v>
-      </c>
-      <c r="E4" s="61"/>
-    </row>
-    <row r="5" spans="2:6" ht="30">
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="22">
+        <v>2</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="2:6" ht="45">
+      <c r="B6" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="26">
-        <v>8</v>
-      </c>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="6" spans="2:6" ht="45">
-      <c r="B6" s="58" t="s">
+      <c r="C6" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="D6" s="55">
+        <v>1</v>
+      </c>
+      <c r="E6" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="60">
-        <v>6</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="7" spans="2:6" ht="30">
-      <c r="B7" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="26">
-        <v>4</v>
-      </c>
-      <c r="E7" s="28"/>
+      <c r="B7" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="22">
+        <v>2</v>
+      </c>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="2:6" s="2" customFormat="1">
-      <c r="C9" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="23">
-        <f>SUM(D3:D7)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" s="18" customFormat="1">
-      <c r="B10" s="19"/>
-      <c r="C10" s="16"/>
+      <c r="B9" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="2:6" s="17" customFormat="1">
+      <c r="B10" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="127" t="s">
+        <v>158</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
+      <c r="B11" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="129">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="125" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="126">
+        <v>1</v>
+      </c>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="128" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="129">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2766,93 +3045,642 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E7"/>
+  <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="50.25" customHeight="1">
-      <c r="B1" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="44" t="s">
-        <v>28</v>
+      <c r="D2" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="22">
+        <v>1</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="30">
+      <c r="B4" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C4" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="26">
-        <v>10</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="D4" s="55">
+        <v>1</v>
+      </c>
+      <c r="E4" s="56"/>
+    </row>
+    <row r="5" spans="2:5" ht="30">
+      <c r="B5" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="30">
-      <c r="B4" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="60">
-        <v>6</v>
-      </c>
-      <c r="E4" s="61"/>
-    </row>
-    <row r="5" spans="2:5" ht="30">
-      <c r="B5" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="26">
-        <v>10</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>133</v>
-      </c>
-    </row>
     <row r="7" spans="2:5">
-      <c r="C7" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="23">
-        <f>SUM(D3:D5)</f>
-        <v>26</v>
+      <c r="B7" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="125" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="128" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="129">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="30">
+      <c r="B2" s="146" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="144" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="144" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="144" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="137" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="144" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="145" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="147">
+        <v>39692</v>
+      </c>
+      <c r="C3" s="134">
+        <v>2500</v>
+      </c>
+      <c r="D3" s="134">
+        <v>2500</v>
+      </c>
+      <c r="E3" s="134">
+        <v>0</v>
+      </c>
+      <c r="F3" s="134">
+        <f>E3/100*L4</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="132">
+        <v>0</v>
+      </c>
+      <c r="H3" s="135">
+        <v>0</v>
+      </c>
+      <c r="I3" s="136"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="147">
+        <v>39722</v>
+      </c>
+      <c r="C4" s="138">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="138">
+        <v>3000</v>
+      </c>
+      <c r="E4" s="138">
+        <v>0</v>
+      </c>
+      <c r="F4" s="138">
+        <f>E4/100*L4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="132">
+        <f>G3+C4-D4-F4</f>
+        <v>7000</v>
+      </c>
+      <c r="H4" s="139">
+        <v>1</v>
+      </c>
+      <c r="I4" s="140"/>
+      <c r="K4" s="131" t="s">
+        <v>176</v>
+      </c>
+      <c r="L4" s="149">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="147">
+        <v>39753</v>
+      </c>
+      <c r="C5" s="134">
+        <v>9000</v>
+      </c>
+      <c r="D5" s="134">
+        <v>3000</v>
+      </c>
+      <c r="E5" s="134">
+        <v>0</v>
+      </c>
+      <c r="F5" s="134">
+        <f>E5/100*L4</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="132">
+        <f t="shared" ref="G5:G18" si="0">G4+C5-D5-F5</f>
+        <v>13000</v>
+      </c>
+      <c r="H5" s="135">
+        <v>2</v>
+      </c>
+      <c r="I5" s="136" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="147">
+        <v>39783</v>
+      </c>
+      <c r="C6" s="138">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="138">
+        <v>3000</v>
+      </c>
+      <c r="E6" s="138">
+        <v>2500</v>
+      </c>
+      <c r="F6" s="138">
+        <f>E6/100*L4</f>
+        <v>625</v>
+      </c>
+      <c r="G6" s="132">
+        <f t="shared" si="0"/>
+        <v>14375</v>
+      </c>
+      <c r="H6" s="139" t="s">
+        <v>169</v>
+      </c>
+      <c r="I6" s="140" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="147">
+        <v>39814</v>
+      </c>
+      <c r="C7" s="134">
+        <v>0</v>
+      </c>
+      <c r="D7" s="134">
+        <v>5000</v>
+      </c>
+      <c r="E7" s="134">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="134">
+        <f>E7/100*L4</f>
+        <v>1250</v>
+      </c>
+      <c r="G7" s="132">
+        <f t="shared" si="0"/>
+        <v>8125</v>
+      </c>
+      <c r="H7" s="135"/>
+      <c r="I7" s="136"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="147">
+        <v>39845</v>
+      </c>
+      <c r="C8" s="138">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="138">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="138">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="138">
+        <f>E8/100*L4</f>
+        <v>1250</v>
+      </c>
+      <c r="G8" s="132">
+        <f t="shared" si="0"/>
+        <v>11875</v>
+      </c>
+      <c r="H8" s="139">
+        <v>3</v>
+      </c>
+      <c r="I8" s="140" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="147">
+        <v>39873</v>
+      </c>
+      <c r="C9" s="134">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="134">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="134">
+        <v>5000</v>
+      </c>
+      <c r="F9" s="134">
+        <f>E9/100*L4</f>
+        <v>1250</v>
+      </c>
+      <c r="G9" s="132">
+        <f t="shared" si="0"/>
+        <v>10625</v>
+      </c>
+      <c r="H9" s="135" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="136" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="147">
+        <v>39904</v>
+      </c>
+      <c r="C10" s="138">
+        <v>0</v>
+      </c>
+      <c r="D10" s="138">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="138">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="138">
+        <f>E10/100*L4</f>
+        <v>1250</v>
+      </c>
+      <c r="G10" s="132">
+        <f t="shared" si="0"/>
+        <v>4375</v>
+      </c>
+      <c r="H10" s="139"/>
+      <c r="I10" s="140"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="147">
+        <v>39934</v>
+      </c>
+      <c r="C11" s="134">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="134">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="134">
+        <v>7500</v>
+      </c>
+      <c r="F11" s="134">
+        <f>E11/100*L4</f>
+        <v>1875</v>
+      </c>
+      <c r="G11" s="132">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="H11" s="135">
+        <v>4</v>
+      </c>
+      <c r="I11" s="136" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="147">
+        <v>39965</v>
+      </c>
+      <c r="C12" s="138">
+        <v>5000</v>
+      </c>
+      <c r="D12" s="138">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="138">
+        <v>7500</v>
+      </c>
+      <c r="F12" s="138">
+        <f>E12/100*L4</f>
+        <v>1875</v>
+      </c>
+      <c r="G12" s="132">
+        <f t="shared" si="0"/>
+        <v>5625</v>
+      </c>
+      <c r="H12" s="139" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" s="140" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="147">
+        <v>39995</v>
+      </c>
+      <c r="C13" s="134">
+        <v>0</v>
+      </c>
+      <c r="D13" s="134">
+        <v>5000</v>
+      </c>
+      <c r="E13" s="134">
+        <v>7500</v>
+      </c>
+      <c r="F13" s="134">
+        <f>E13/100*L4</f>
+        <v>1875</v>
+      </c>
+      <c r="G13" s="132">
+        <f t="shared" si="0"/>
+        <v>-1250</v>
+      </c>
+      <c r="H13" s="135"/>
+      <c r="I13" s="136"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="147">
+        <v>40026</v>
+      </c>
+      <c r="C14" s="138">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="138">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="138">
+        <v>7500</v>
+      </c>
+      <c r="F14" s="138">
+        <f>E14/100*L4</f>
+        <v>1875</v>
+      </c>
+      <c r="G14" s="132">
+        <f t="shared" si="0"/>
+        <v>1875</v>
+      </c>
+      <c r="H14" s="139">
+        <v>5</v>
+      </c>
+      <c r="I14" s="140" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="147">
+        <v>40057</v>
+      </c>
+      <c r="C15" s="134">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="134">
+        <v>5000</v>
+      </c>
+      <c r="E15" s="134">
+        <v>10000</v>
+      </c>
+      <c r="F15" s="134">
+        <f>E15/100*L4</f>
+        <v>2500</v>
+      </c>
+      <c r="G15" s="132">
+        <f t="shared" si="0"/>
+        <v>-625</v>
+      </c>
+      <c r="H15" s="135" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" s="136" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="147">
+        <v>40087</v>
+      </c>
+      <c r="C16" s="138">
+        <v>0</v>
+      </c>
+      <c r="D16" s="138">
+        <v>5000</v>
+      </c>
+      <c r="E16" s="138">
+        <v>10000</v>
+      </c>
+      <c r="F16" s="138">
+        <f>E16/100*L4</f>
+        <v>2500</v>
+      </c>
+      <c r="G16" s="132">
+        <f t="shared" si="0"/>
+        <v>-8125</v>
+      </c>
+      <c r="H16" s="139"/>
+      <c r="I16" s="140"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="147">
+        <v>40118</v>
+      </c>
+      <c r="C17" s="134">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="134">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="134">
+        <v>10000</v>
+      </c>
+      <c r="F17" s="134">
+        <f>E17/100*L4</f>
+        <v>2500</v>
+      </c>
+      <c r="G17" s="132">
+        <f t="shared" si="0"/>
+        <v>-5625</v>
+      </c>
+      <c r="H17" s="135">
+        <v>6</v>
+      </c>
+      <c r="I17" s="136" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="148">
+        <v>40148</v>
+      </c>
+      <c r="C18" s="141">
+        <v>5000</v>
+      </c>
+      <c r="D18" s="141">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="141">
+        <v>10000</v>
+      </c>
+      <c r="F18" s="141">
+        <f>E18/100*L4</f>
+        <v>2500</v>
+      </c>
+      <c r="G18" s="133">
+        <f t="shared" si="0"/>
+        <v>-8125</v>
+      </c>
+      <c r="H18" s="142" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18" s="143" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="130"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="150" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="151">
+        <f>SUM(C3:C18)</f>
+        <v>86500</v>
+      </c>
+      <c r="D20" s="151">
+        <f t="shared" ref="D20:F20" si="1">SUM(D3:D18)</f>
+        <v>71500</v>
+      </c>
+      <c r="E20" s="151">
+        <f t="shared" si="1"/>
+        <v>92500</v>
+      </c>
+      <c r="F20" s="152">
+        <f t="shared" si="1"/>
+        <v>23125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="130"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="130"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/zeitgeist/applications/wellnesswelt_admin/_material/wellnesswelt.xlsx
+++ b/zeitgeist/applications/wellnesswelt_admin/_material/wellnesswelt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="5205" windowHeight="5580" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="5205" windowHeight="5580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,18 @@
     <sheet name="Phase 1" sheetId="2" r:id="rId4"/>
     <sheet name="Phase 2" sheetId="3" r:id="rId5"/>
     <sheet name="Phase 3" sheetId="6" r:id="rId6"/>
-    <sheet name="Finanzierungskonzept 1" sheetId="7" r:id="rId7"/>
+    <sheet name="Zeitplan" sheetId="9" r:id="rId7"/>
+    <sheet name="Finanzierungskonzept 1" sheetId="7" r:id="rId8"/>
+    <sheet name="Finanzierungskonzept 2" sheetId="8" r:id="rId9"/>
+    <sheet name="Finanzierungskonzept 3" sheetId="12" r:id="rId10"/>
+    <sheet name="Tabelle3" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="183">
   <si>
     <t>Funktionalität</t>
   </si>
@@ -666,12 +670,6 @@
     <t>6+</t>
   </si>
   <si>
-    <t>Beteiligung (in € gemäß %-Satz)</t>
-  </si>
-  <si>
-    <t>%-Satz Beteiligung</t>
-  </si>
-  <si>
     <t>Neue Phase</t>
   </si>
   <si>
@@ -680,6 +678,21 @@
   </si>
   <si>
     <t>Überarbeitungsphase</t>
+  </si>
+  <si>
+    <t>Wartungs- und Planungsphase</t>
+  </si>
+  <si>
+    <t>Umsatzbeteiligung (in € gemäß %-Satz)</t>
+  </si>
+  <si>
+    <t>Beteiligung (in %)</t>
+  </si>
+  <si>
+    <t>Offene Aufwände (in €)</t>
+  </si>
+  <si>
+    <t>Erfolgsbasierte Zahlung (in €)</t>
   </si>
 </sst>
 </file>
@@ -688,7 +701,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -978,7 +991,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1326,12 +1339,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1355,9 +1362,9 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="19" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1365,12 +1372,12 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1392,8 +1399,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dezimal" xfId="1" builtinId="3"/>
@@ -1402,6 +1412,303 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Gerade Verbindung mit Pfeil 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="4048125"/>
+          <a:ext cx="1076325" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>771528</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Gerade Verbindung mit Pfeil 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4667252" y="4048124"/>
+          <a:ext cx="161925" cy="104777"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Gerade Verbindung mit Pfeil 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="4038600"/>
+          <a:ext cx="285750" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666752</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Gerade Verbindung mit Pfeil 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3571875" y="4048124"/>
+          <a:ext cx="133352" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Gerade Verbindung mit Pfeil 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="4038600"/>
+          <a:ext cx="285750" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666752</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Gerade Verbindung mit Pfeil 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3571875" y="4048124"/>
+          <a:ext cx="133352" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2409,12 +2716,656 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="30">
+      <c r="B2" s="144" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="142" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="142" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="142" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="135" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="142" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="143" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="145">
+        <v>39692</v>
+      </c>
+      <c r="C3" s="132">
+        <v>2500</v>
+      </c>
+      <c r="D3" s="132">
+        <v>2500</v>
+      </c>
+      <c r="E3" s="132">
+        <v>0</v>
+      </c>
+      <c r="F3" s="130">
+        <v>0</v>
+      </c>
+      <c r="G3" s="133">
+        <v>0</v>
+      </c>
+      <c r="H3" s="134"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="145">
+        <v>39722</v>
+      </c>
+      <c r="C4" s="136">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="136">
+        <v>3000</v>
+      </c>
+      <c r="E4" s="132">
+        <v>0</v>
+      </c>
+      <c r="F4" s="130">
+        <f t="shared" ref="F4:F18" si="0">F3+C4-D4-E4</f>
+        <v>7000</v>
+      </c>
+      <c r="G4" s="137">
+        <v>1</v>
+      </c>
+      <c r="H4" s="138"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="145">
+        <v>39753</v>
+      </c>
+      <c r="C5" s="132">
+        <v>9000</v>
+      </c>
+      <c r="D5" s="132">
+        <v>5000</v>
+      </c>
+      <c r="E5" s="132">
+        <v>0</v>
+      </c>
+      <c r="F5" s="130">
+        <f t="shared" si="0"/>
+        <v>11000</v>
+      </c>
+      <c r="G5" s="133">
+        <v>2</v>
+      </c>
+      <c r="H5" s="134" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="145">
+        <v>39783</v>
+      </c>
+      <c r="C6" s="136">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="136">
+        <v>5000</v>
+      </c>
+      <c r="E6" s="132">
+        <v>0</v>
+      </c>
+      <c r="F6" s="130">
+        <f t="shared" si="0"/>
+        <v>11000</v>
+      </c>
+      <c r="G6" s="137" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="138" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="145">
+        <v>39814</v>
+      </c>
+      <c r="C7" s="132">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="132">
+        <v>6700</v>
+      </c>
+      <c r="E7" s="132">
+        <v>0</v>
+      </c>
+      <c r="F7" s="130">
+        <f t="shared" si="0"/>
+        <v>6300</v>
+      </c>
+      <c r="G7" s="133"/>
+      <c r="H7" s="134" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="145">
+        <v>39845</v>
+      </c>
+      <c r="C8" s="136">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="132">
+        <v>6700</v>
+      </c>
+      <c r="E8" s="132">
+        <v>0</v>
+      </c>
+      <c r="F8" s="130">
+        <f t="shared" si="0"/>
+        <v>9600</v>
+      </c>
+      <c r="G8" s="137">
+        <v>3</v>
+      </c>
+      <c r="H8" s="138" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="145">
+        <v>39873</v>
+      </c>
+      <c r="C9" s="132">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="132">
+        <v>6700</v>
+      </c>
+      <c r="E9" s="132">
+        <v>0</v>
+      </c>
+      <c r="F9" s="130">
+        <f t="shared" si="0"/>
+        <v>7900</v>
+      </c>
+      <c r="G9" s="133" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" s="134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="145">
+        <v>39904</v>
+      </c>
+      <c r="C10" s="136">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="132">
+        <v>6700</v>
+      </c>
+      <c r="E10" s="132">
+        <v>0</v>
+      </c>
+      <c r="F10" s="130">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="G10" s="137"/>
+      <c r="H10" s="138" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="145">
+        <v>39934</v>
+      </c>
+      <c r="C11" s="132">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="132">
+        <v>6700</v>
+      </c>
+      <c r="E11" s="132">
+        <v>0</v>
+      </c>
+      <c r="F11" s="130">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="G11" s="133">
+        <v>4</v>
+      </c>
+      <c r="H11" s="134" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="145">
+        <v>39965</v>
+      </c>
+      <c r="C12" s="136">
+        <v>5000</v>
+      </c>
+      <c r="D12" s="132">
+        <v>6700</v>
+      </c>
+      <c r="E12" s="132">
+        <v>0</v>
+      </c>
+      <c r="F12" s="130">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="G12" s="137" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="138" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="145">
+        <v>39995</v>
+      </c>
+      <c r="C13" s="132">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="132">
+        <v>6700</v>
+      </c>
+      <c r="E13" s="132">
+        <v>0</v>
+      </c>
+      <c r="F13" s="130">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G13" s="133"/>
+      <c r="H13" s="134" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="145">
+        <v>40026</v>
+      </c>
+      <c r="C14" s="136">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="132">
+        <v>6700</v>
+      </c>
+      <c r="E14" s="132">
+        <v>0</v>
+      </c>
+      <c r="F14" s="130">
+        <f t="shared" si="0"/>
+        <v>3400</v>
+      </c>
+      <c r="G14" s="137">
+        <v>5</v>
+      </c>
+      <c r="H14" s="138" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="145">
+        <v>40057</v>
+      </c>
+      <c r="C15" s="132">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="132">
+        <v>6700</v>
+      </c>
+      <c r="E15" s="132">
+        <v>0</v>
+      </c>
+      <c r="F15" s="130">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+      <c r="G15" s="133" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" s="134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="145">
+        <v>40087</v>
+      </c>
+      <c r="C16" s="136">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="132">
+        <v>6700</v>
+      </c>
+      <c r="E16" s="132">
+        <v>0</v>
+      </c>
+      <c r="F16" s="130">
+        <f t="shared" si="0"/>
+        <v>-3000</v>
+      </c>
+      <c r="G16" s="137"/>
+      <c r="H16" s="138" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="145">
+        <v>40118</v>
+      </c>
+      <c r="C17" s="132">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="132">
+        <v>6700</v>
+      </c>
+      <c r="E17" s="132">
+        <v>0</v>
+      </c>
+      <c r="F17" s="130">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="G17" s="133">
+        <v>6</v>
+      </c>
+      <c r="H17" s="134" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="146">
+        <v>40148</v>
+      </c>
+      <c r="C18" s="139">
+        <v>5000</v>
+      </c>
+      <c r="D18" s="132">
+        <v>6700</v>
+      </c>
+      <c r="E18" s="153">
+        <v>0</v>
+      </c>
+      <c r="F18" s="131">
+        <f t="shared" si="0"/>
+        <v>-1400</v>
+      </c>
+      <c r="G18" s="140" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="141" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="128"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="148" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="149">
+        <f>SUM(C3:C18)</f>
+        <v>94500</v>
+      </c>
+      <c r="D20" s="149">
+        <f t="shared" ref="D20:E20" si="1">SUM(D3:D18)</f>
+        <v>95900</v>
+      </c>
+      <c r="E20" s="150">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="E22" s="152">
+        <f>E20+D20</f>
+        <v>95900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="30">
+      <c r="B2" s="144" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="142" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="142" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="142" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="135" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="142" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="143" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="145">
+        <v>39692</v>
+      </c>
+      <c r="C3" s="132">
+        <v>2500</v>
+      </c>
+      <c r="D3" s="151">
+        <v>5000</v>
+      </c>
+      <c r="E3" s="132">
+        <v>0</v>
+      </c>
+      <c r="F3" s="130">
+        <f>C3-D3</f>
+        <v>-2500</v>
+      </c>
+      <c r="G3" s="133">
+        <v>0</v>
+      </c>
+      <c r="H3" s="134"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="145">
+        <v>39722</v>
+      </c>
+      <c r="C4" s="136">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="151">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="132">
+        <v>0</v>
+      </c>
+      <c r="F4" s="130">
+        <f t="shared" ref="F4:F7" si="0">F3+C4-D4-E4</f>
+        <v>2500</v>
+      </c>
+      <c r="G4" s="137">
+        <v>1</v>
+      </c>
+      <c r="H4" s="138"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="145">
+        <v>39753</v>
+      </c>
+      <c r="C5" s="132">
+        <v>8750</v>
+      </c>
+      <c r="D5" s="132">
+        <v>9500</v>
+      </c>
+      <c r="E5" s="132">
+        <v>0</v>
+      </c>
+      <c r="F5" s="130">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+      <c r="G5" s="133">
+        <v>2</v>
+      </c>
+      <c r="H5" s="134" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="145">
+        <v>39783</v>
+      </c>
+      <c r="C6" s="136">
+        <v>7500</v>
+      </c>
+      <c r="D6" s="136">
+        <v>9500</v>
+      </c>
+      <c r="E6" s="132">
+        <v>0</v>
+      </c>
+      <c r="F6" s="130">
+        <f t="shared" si="0"/>
+        <v>-250</v>
+      </c>
+      <c r="G6" s="137" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="138" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="F7" s="130"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="148" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="149">
+        <f>SUM(C3:C6)</f>
+        <v>28750</v>
+      </c>
+      <c r="D9" s="149">
+        <f>SUM(D3:D6)</f>
+        <v>29000</v>
+      </c>
+      <c r="E9" s="150"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="C10" s="151">
+        <f>C9/4</f>
+        <v>7187.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="C11" s="151"/>
+      <c r="E11" s="152"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="C12" s="151"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="C16">
+        <v>2500</v>
+      </c>
+      <c r="D16">
+        <v>80</v>
+      </c>
+      <c r="E16">
+        <f>C16/D16</f>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17">
+        <f>E17*D17</f>
+        <v>4000</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18">
+        <f>C17*3.5</f>
+        <v>14000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2574,8 +3525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2663,45 +3614,69 @@
       <c r="B10" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="122" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="123" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="125" t="s">
         <v>158</v>
       </c>
+      <c r="D11" s="4">
+        <f>E11*0.5</f>
+        <v>1250</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2500</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="127" t="s">
         <v>158</v>
       </c>
+      <c r="D12" s="4">
+        <f>E12*0.5</f>
+        <v>1250</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2500</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="126">
-        <v>0</v>
+      <c r="C13" s="124">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2500</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="128" t="s">
+      <c r="B14" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="129">
-        <v>0</v>
+      <c r="C14" s="127">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2500</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="12"/>
       <c r="C15" s="15"/>
+      <c r="D15" s="4">
+        <f>SUM(D11:D14)</f>
+        <v>2500</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2711,10 +3686,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F14"/>
+  <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2728,7 +3703,7 @@
     <col min="7" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" customFormat="1" ht="50.25" customHeight="1">
+    <row r="1" spans="2:7" customFormat="1" ht="50.25" customHeight="1">
       <c r="B1" s="85" t="s">
         <v>114</v>
       </c>
@@ -2736,7 +3711,7 @@
       <c r="D1" s="87"/>
       <c r="E1" s="86"/>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:7">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2751,7 +3726,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:6" ht="30">
+    <row r="3" spans="2:7" ht="30">
       <c r="B3" s="25" t="s">
         <v>4</v>
       </c>
@@ -2763,7 +3738,7 @@
       </c>
       <c r="E3" s="37"/>
     </row>
-    <row r="4" spans="2:6" ht="30">
+    <row r="4" spans="2:7" ht="30">
       <c r="B4" s="47" t="s">
         <v>5</v>
       </c>
@@ -2775,7 +3750,7 @@
       </c>
       <c r="E4" s="52"/>
     </row>
-    <row r="5" spans="2:6" ht="30">
+    <row r="5" spans="2:7" ht="30">
       <c r="B5" s="25" t="s">
         <v>18</v>
       </c>
@@ -2789,7 +3764,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="30">
+    <row r="6" spans="2:7" ht="30">
       <c r="B6" s="47" t="s">
         <v>3</v>
       </c>
@@ -2800,8 +3775,11 @@
         <v>2</v>
       </c>
       <c r="E6" s="52"/>
-    </row>
-    <row r="7" spans="2:6" ht="60">
+      <c r="F6" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="60">
       <c r="B7" s="25" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +3792,11 @@
       <c r="E7" s="37" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="F7" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="47" t="s">
         <v>31</v>
       </c>
@@ -2828,59 +3809,95 @@
       <c r="E8" s="52" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="F8" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="2:6" s="17" customFormat="1">
+    <row r="10" spans="2:7" s="17" customFormat="1">
       <c r="B10" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="122" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="2:6" s="16" customFormat="1">
-      <c r="B11" s="125" t="s">
+      <c r="D10" s="121"/>
+      <c r="F10" s="18">
+        <f>SUM(F3:F8)</f>
+        <v>53</v>
+      </c>
+      <c r="G10" s="17">
+        <f>F10/1.5</f>
+        <v>35.333333333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="16" customFormat="1">
+      <c r="B11" s="123" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="126">
-        <v>1</v>
-      </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="124">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2500</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2500</v>
+      </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="128" t="s">
+    <row r="12" spans="2:7">
+      <c r="B12" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="129">
-        <v>1</v>
-      </c>
-      <c r="D12" s="122"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="125" t="s">
+      <c r="C12" s="127">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2500</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="126">
-        <v>1</v>
-      </c>
-      <c r="D13" s="121"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="128" t="s">
+      <c r="C13" s="125" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1250</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="129">
-        <v>1</v>
-      </c>
-      <c r="D14" s="122"/>
+      <c r="C14" s="127">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2500</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="D15" s="4">
+        <f>SUM(D11:D14)</f>
+        <v>8750</v>
+      </c>
+      <c r="E15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2889,10 +3906,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F13"/>
+  <dimension ref="B1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2997,46 +4014,75 @@
       <c r="B9" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="122" t="s">
         <v>168</v>
       </c>
       <c r="D9" s="19"/>
     </row>
     <row r="10" spans="2:6" s="17" customFormat="1">
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="123" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="125" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="4">
+        <f>E10*0.5</f>
+        <v>1250</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2500</v>
+      </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="129">
-        <v>1</v>
-      </c>
-      <c r="D11" s="19"/>
+      <c r="C11" s="127">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2500</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2500</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="126">
-        <v>1</v>
-      </c>
-      <c r="D12" s="19"/>
+      <c r="C12" s="124">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2500</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2500</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="129">
-        <v>1</v>
-      </c>
+      <c r="C13" s="127">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2500</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="D14" s="4">
+        <f>SUM(D10:D13)</f>
+        <v>8750</v>
+      </c>
+      <c r="E14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3045,10 +4091,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E11"/>
+  <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3082,7 +4128,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" ht="30">
       <c r="B3" s="20" t="s">
         <v>126</v>
       </c>
@@ -3108,7 +4154,7 @@
       </c>
       <c r="E4" s="56"/>
     </row>
-    <row r="5" spans="2:5" ht="30">
+    <row r="5" spans="2:5" ht="60">
       <c r="B5" s="20" t="s">
         <v>128</v>
       </c>
@@ -3126,41 +4172,72 @@
       <c r="B7" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="122" t="s">
         <v>168</v>
       </c>
       <c r="D7" s="19"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="123" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="125" t="s">
         <v>158</v>
       </c>
+      <c r="D8" s="4">
+        <f>E8*0.5</f>
+        <v>1250</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2500</v>
+      </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="128" t="s">
+      <c r="B9" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="129">
-        <v>1</v>
+      <c r="C9" s="127">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2500</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="125" t="s">
         <v>158</v>
       </c>
+      <c r="D10" s="4">
+        <v>1250</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2500</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="129">
-        <v>1</v>
+      <c r="C11" s="127">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2500</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="D12" s="4">
+        <f>SUM(D8:D11)</f>
+        <v>7500</v>
       </c>
     </row>
   </sheetData>
@@ -3170,10 +4247,205 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:D18"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="144" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="142" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="144" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="145">
+        <v>39692</v>
+      </c>
+      <c r="C3" s="133">
+        <v>0</v>
+      </c>
+      <c r="D3" s="134"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="145">
+        <v>39722</v>
+      </c>
+      <c r="C4" s="137">
+        <v>1</v>
+      </c>
+      <c r="D4" s="138"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="145">
+        <v>39753</v>
+      </c>
+      <c r="C5" s="133">
+        <v>2</v>
+      </c>
+      <c r="D5" s="134" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="145">
+        <v>39783</v>
+      </c>
+      <c r="C6" s="137" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="138" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="145">
+        <v>39814</v>
+      </c>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="145">
+        <v>39845</v>
+      </c>
+      <c r="C8" s="137">
+        <v>3</v>
+      </c>
+      <c r="D8" s="138" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="145">
+        <v>39873</v>
+      </c>
+      <c r="C9" s="133" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="145">
+        <v>39904</v>
+      </c>
+      <c r="C10" s="137"/>
+      <c r="D10" s="138" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="145">
+        <v>39934</v>
+      </c>
+      <c r="C11" s="133">
+        <v>4</v>
+      </c>
+      <c r="D11" s="134" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="145">
+        <v>39965</v>
+      </c>
+      <c r="C12" s="137" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="138" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="145">
+        <v>39995</v>
+      </c>
+      <c r="C13" s="133"/>
+      <c r="D13" s="134" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="145">
+        <v>40026</v>
+      </c>
+      <c r="C14" s="137">
+        <v>5</v>
+      </c>
+      <c r="D14" s="138" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="145">
+        <v>40057</v>
+      </c>
+      <c r="C15" s="133" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="145">
+        <v>40087</v>
+      </c>
+      <c r="C16" s="137"/>
+      <c r="D16" s="138" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="145">
+        <v>40118</v>
+      </c>
+      <c r="C17" s="133">
+        <v>6</v>
+      </c>
+      <c r="D17" s="134" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="146">
+        <v>40148</v>
+      </c>
+      <c r="C18" s="140" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="141" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3182,505 +4454,962 @@
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="30">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="142" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="142" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="144" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="144" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="137" t="s">
-        <v>170</v>
-      </c>
-      <c r="H2" s="144" t="s">
+      <c r="E2" s="142" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="142" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="135" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="142" t="s">
         <v>163</v>
       </c>
-      <c r="I2" s="145" t="s">
+      <c r="I2" s="143" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="147">
+      <c r="B3" s="145">
         <v>39692</v>
       </c>
-      <c r="C3" s="134">
+      <c r="C3" s="132">
         <v>2500</v>
       </c>
-      <c r="D3" s="134">
+      <c r="D3" s="132">
         <v>2500</v>
       </c>
-      <c r="E3" s="134">
-        <v>0</v>
-      </c>
-      <c r="F3" s="134">
+      <c r="E3" s="132">
+        <v>0</v>
+      </c>
+      <c r="F3" s="132">
         <f>E3/100*L4</f>
         <v>0</v>
       </c>
-      <c r="G3" s="132">
-        <v>0</v>
-      </c>
-      <c r="H3" s="135">
-        <v>0</v>
-      </c>
-      <c r="I3" s="136"/>
+      <c r="G3" s="130">
+        <v>0</v>
+      </c>
+      <c r="H3" s="133">
+        <v>0</v>
+      </c>
+      <c r="I3" s="134"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="147">
+      <c r="B4" s="145">
         <v>39722</v>
       </c>
-      <c r="C4" s="138">
+      <c r="C4" s="136">
         <v>10000</v>
       </c>
-      <c r="D4" s="138">
+      <c r="D4" s="136">
         <v>3000</v>
       </c>
-      <c r="E4" s="138">
-        <v>0</v>
-      </c>
-      <c r="F4" s="138">
+      <c r="E4" s="136">
+        <v>0</v>
+      </c>
+      <c r="F4" s="136">
         <f>E4/100*L4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="132">
+      <c r="G4" s="130">
         <f>G3+C4-D4-F4</f>
         <v>7000</v>
       </c>
-      <c r="H4" s="139">
-        <v>1</v>
-      </c>
-      <c r="I4" s="140"/>
-      <c r="K4" s="131" t="s">
-        <v>176</v>
-      </c>
-      <c r="L4" s="149">
-        <v>25</v>
+      <c r="H4" s="137">
+        <v>1</v>
+      </c>
+      <c r="I4" s="138"/>
+      <c r="K4" s="129" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4" s="147">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="147">
+      <c r="B5" s="145">
         <v>39753</v>
       </c>
-      <c r="C5" s="134">
+      <c r="C5" s="132">
         <v>9000</v>
       </c>
-      <c r="D5" s="134">
+      <c r="D5" s="132">
         <v>3000</v>
       </c>
-      <c r="E5" s="134">
-        <v>0</v>
-      </c>
-      <c r="F5" s="134">
+      <c r="E5" s="132">
+        <v>0</v>
+      </c>
+      <c r="F5" s="132">
         <f>E5/100*L4</f>
         <v>0</v>
       </c>
-      <c r="G5" s="132">
+      <c r="G5" s="130">
         <f t="shared" ref="G5:G18" si="0">G4+C5-D5-F5</f>
         <v>13000</v>
       </c>
-      <c r="H5" s="135">
+      <c r="H5" s="133">
         <v>2</v>
       </c>
-      <c r="I5" s="136" t="s">
+      <c r="I5" s="134" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="147">
+      <c r="B6" s="145">
         <v>39783</v>
       </c>
-      <c r="C6" s="138">
+      <c r="C6" s="136">
         <v>5000</v>
       </c>
-      <c r="D6" s="138">
+      <c r="D6" s="136">
         <v>3000</v>
       </c>
-      <c r="E6" s="138">
+      <c r="E6" s="136">
         <v>2500</v>
       </c>
-      <c r="F6" s="138">
+      <c r="F6" s="136">
         <f>E6/100*L4</f>
-        <v>625</v>
-      </c>
-      <c r="G6" s="132">
+        <v>750</v>
+      </c>
+      <c r="G6" s="130">
+        <f>G5+C6-D6-F6</f>
+        <v>14250</v>
+      </c>
+      <c r="H6" s="137" t="s">
+        <v>169</v>
+      </c>
+      <c r="I6" s="138" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="145">
+        <v>39814</v>
+      </c>
+      <c r="C7" s="132">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="132">
+        <v>5000</v>
+      </c>
+      <c r="E7" s="132">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="132">
+        <f>E7/100*L4</f>
+        <v>1500</v>
+      </c>
+      <c r="G7" s="130">
         <f t="shared" si="0"/>
-        <v>14375</v>
-      </c>
-      <c r="H6" s="139" t="s">
-        <v>169</v>
-      </c>
-      <c r="I6" s="140" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="147">
-        <v>39814</v>
-      </c>
-      <c r="C7" s="134">
-        <v>0</v>
-      </c>
-      <c r="D7" s="134">
+        <v>9750</v>
+      </c>
+      <c r="H7" s="133"/>
+      <c r="I7" s="134" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="145">
+        <v>39845</v>
+      </c>
+      <c r="C8" s="136">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="136">
         <v>5000</v>
       </c>
-      <c r="E7" s="134">
+      <c r="E8" s="136">
         <v>5000</v>
       </c>
-      <c r="F7" s="134">
-        <f>E7/100*L4</f>
-        <v>1250</v>
-      </c>
-      <c r="G7" s="132">
+      <c r="F8" s="136">
+        <f>E8/100*L4</f>
+        <v>1500</v>
+      </c>
+      <c r="G8" s="130">
         <f t="shared" si="0"/>
-        <v>8125</v>
-      </c>
-      <c r="H7" s="135"/>
-      <c r="I7" s="136"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="147">
-        <v>39845</v>
-      </c>
-      <c r="C8" s="138">
+        <v>13250</v>
+      </c>
+      <c r="H8" s="137">
+        <v>3</v>
+      </c>
+      <c r="I8" s="138" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="145">
+        <v>39873</v>
+      </c>
+      <c r="C9" s="132">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="132">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="132">
+        <v>5000</v>
+      </c>
+      <c r="F9" s="132">
+        <f>E9/100*L4</f>
+        <v>1500</v>
+      </c>
+      <c r="G9" s="130">
+        <f t="shared" si="0"/>
+        <v>11750</v>
+      </c>
+      <c r="H9" s="133" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="145">
+        <v>39904</v>
+      </c>
+      <c r="C10" s="136">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="136">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="136">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="136">
+        <f>E10/100*L4</f>
+        <v>1500</v>
+      </c>
+      <c r="G10" s="130">
+        <f t="shared" si="0"/>
+        <v>7250</v>
+      </c>
+      <c r="H10" s="137"/>
+      <c r="I10" s="138" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="145">
+        <v>39934</v>
+      </c>
+      <c r="C11" s="132">
         <v>10000</v>
       </c>
-      <c r="D8" s="138">
+      <c r="D11" s="132">
         <v>5000</v>
       </c>
-      <c r="E8" s="138">
+      <c r="E11" s="132">
+        <v>7500</v>
+      </c>
+      <c r="F11" s="132">
+        <f>E11/100*L4</f>
+        <v>2250</v>
+      </c>
+      <c r="G11" s="130">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="H11" s="133">
+        <v>4</v>
+      </c>
+      <c r="I11" s="134" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="145">
+        <v>39965</v>
+      </c>
+      <c r="C12" s="136">
         <v>5000</v>
       </c>
-      <c r="F8" s="138">
-        <f>E8/100*L4</f>
-        <v>1250</v>
-      </c>
-      <c r="G8" s="132">
+      <c r="D12" s="136">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="136">
+        <v>7500</v>
+      </c>
+      <c r="F12" s="136">
+        <f>E12/100*L4</f>
+        <v>2250</v>
+      </c>
+      <c r="G12" s="130">
         <f t="shared" si="0"/>
-        <v>11875</v>
-      </c>
-      <c r="H8" s="139">
-        <v>3</v>
-      </c>
-      <c r="I8" s="140" t="s">
+        <v>7750</v>
+      </c>
+      <c r="H12" s="137" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" s="138" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="147">
-        <v>39873</v>
-      </c>
-      <c r="C9" s="134">
+    <row r="13" spans="2:12">
+      <c r="B13" s="145">
+        <v>39995</v>
+      </c>
+      <c r="C13" s="132">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="132">
         <v>5000</v>
       </c>
-      <c r="D9" s="134">
+      <c r="E13" s="132">
+        <v>7500</v>
+      </c>
+      <c r="F13" s="132">
+        <f>E13/100*L4</f>
+        <v>2250</v>
+      </c>
+      <c r="G13" s="130">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="H13" s="133"/>
+      <c r="I13" s="134" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="145">
+        <v>40026</v>
+      </c>
+      <c r="C14" s="136">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="136">
         <v>5000</v>
       </c>
-      <c r="E9" s="134">
+      <c r="E14" s="136">
+        <v>7500</v>
+      </c>
+      <c r="F14" s="136">
+        <f>E14/100*L4</f>
+        <v>2250</v>
+      </c>
+      <c r="G14" s="130">
+        <f t="shared" si="0"/>
+        <v>5250</v>
+      </c>
+      <c r="H14" s="137">
+        <v>5</v>
+      </c>
+      <c r="I14" s="138" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="145">
+        <v>40057</v>
+      </c>
+      <c r="C15" s="132">
         <v>5000</v>
       </c>
-      <c r="F9" s="134">
-        <f>E9/100*L4</f>
-        <v>1250</v>
-      </c>
-      <c r="G9" s="132">
+      <c r="D15" s="132">
+        <v>5000</v>
+      </c>
+      <c r="E15" s="132">
+        <v>10000</v>
+      </c>
+      <c r="F15" s="132">
+        <f>E15/100*L4</f>
+        <v>3000</v>
+      </c>
+      <c r="G15" s="130">
         <f t="shared" si="0"/>
-        <v>10625</v>
-      </c>
-      <c r="H9" s="135" t="s">
-        <v>171</v>
-      </c>
-      <c r="I9" s="136" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="147">
-        <v>39904</v>
-      </c>
-      <c r="C10" s="138">
-        <v>0</v>
-      </c>
-      <c r="D10" s="138">
+        <v>2250</v>
+      </c>
+      <c r="H15" s="133" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" s="134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="145">
+        <v>40087</v>
+      </c>
+      <c r="C16" s="136">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="136">
         <v>5000</v>
       </c>
-      <c r="E10" s="138">
+      <c r="E16" s="136">
+        <v>10000</v>
+      </c>
+      <c r="F16" s="136">
+        <f>E16/100*L4</f>
+        <v>3000</v>
+      </c>
+      <c r="G16" s="130">
+        <f t="shared" si="0"/>
+        <v>-3750</v>
+      </c>
+      <c r="H16" s="137"/>
+      <c r="I16" s="138" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="145">
+        <v>40118</v>
+      </c>
+      <c r="C17" s="132">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="132">
         <v>5000</v>
       </c>
-      <c r="F10" s="138">
-        <f>E10/100*L4</f>
-        <v>1250</v>
-      </c>
-      <c r="G10" s="132">
+      <c r="E17" s="132">
+        <v>10000</v>
+      </c>
+      <c r="F17" s="132">
+        <f>E17/100*L4</f>
+        <v>3000</v>
+      </c>
+      <c r="G17" s="130">
         <f t="shared" si="0"/>
-        <v>4375</v>
-      </c>
-      <c r="H10" s="139"/>
-      <c r="I10" s="140"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="147">
-        <v>39934</v>
-      </c>
-      <c r="C11" s="134">
+        <v>-1750</v>
+      </c>
+      <c r="H17" s="133">
+        <v>6</v>
+      </c>
+      <c r="I17" s="134" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="146">
+        <v>40148</v>
+      </c>
+      <c r="C18" s="139">
+        <v>5000</v>
+      </c>
+      <c r="D18" s="139">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="139">
         <v>10000</v>
       </c>
-      <c r="D11" s="134">
-        <v>5000</v>
-      </c>
-      <c r="E11" s="134">
-        <v>7500</v>
-      </c>
-      <c r="F11" s="134">
-        <f>E11/100*L4</f>
-        <v>1875</v>
-      </c>
-      <c r="G11" s="132">
+      <c r="F18" s="139">
+        <f>E18/100*L4</f>
+        <v>3000</v>
+      </c>
+      <c r="G18" s="131">
         <f t="shared" si="0"/>
-        <v>7500</v>
-      </c>
-      <c r="H11" s="135">
-        <v>4</v>
-      </c>
-      <c r="I11" s="136" t="s">
+        <v>-4750</v>
+      </c>
+      <c r="H18" s="140" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18" s="141" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="147">
-        <v>39965</v>
-      </c>
-      <c r="C12" s="138">
-        <v>5000</v>
-      </c>
-      <c r="D12" s="138">
-        <v>5000</v>
-      </c>
-      <c r="E12" s="138">
-        <v>7500</v>
-      </c>
-      <c r="F12" s="138">
-        <f>E12/100*L4</f>
-        <v>1875</v>
-      </c>
-      <c r="G12" s="132">
-        <f t="shared" si="0"/>
-        <v>5625</v>
-      </c>
-      <c r="H12" s="139" t="s">
-        <v>172</v>
-      </c>
-      <c r="I12" s="140" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="147">
-        <v>39995</v>
-      </c>
-      <c r="C13" s="134">
-        <v>0</v>
-      </c>
-      <c r="D13" s="134">
-        <v>5000</v>
-      </c>
-      <c r="E13" s="134">
-        <v>7500</v>
-      </c>
-      <c r="F13" s="134">
-        <f>E13/100*L4</f>
-        <v>1875</v>
-      </c>
-      <c r="G13" s="132">
-        <f t="shared" si="0"/>
-        <v>-1250</v>
-      </c>
-      <c r="H13" s="135"/>
-      <c r="I13" s="136"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="147">
-        <v>40026</v>
-      </c>
-      <c r="C14" s="138">
-        <v>10000</v>
-      </c>
-      <c r="D14" s="138">
-        <v>5000</v>
-      </c>
-      <c r="E14" s="138">
-        <v>7500</v>
-      </c>
-      <c r="F14" s="138">
-        <f>E14/100*L4</f>
-        <v>1875</v>
-      </c>
-      <c r="G14" s="132">
-        <f t="shared" si="0"/>
-        <v>1875</v>
-      </c>
-      <c r="H14" s="139">
-        <v>5</v>
-      </c>
-      <c r="I14" s="140" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="147">
-        <v>40057</v>
-      </c>
-      <c r="C15" s="134">
-        <v>5000</v>
-      </c>
-      <c r="D15" s="134">
-        <v>5000</v>
-      </c>
-      <c r="E15" s="134">
-        <v>10000</v>
-      </c>
-      <c r="F15" s="134">
-        <f>E15/100*L4</f>
-        <v>2500</v>
-      </c>
-      <c r="G15" s="132">
-        <f t="shared" si="0"/>
-        <v>-625</v>
-      </c>
-      <c r="H15" s="135" t="s">
-        <v>173</v>
-      </c>
-      <c r="I15" s="136" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="147">
-        <v>40087</v>
-      </c>
-      <c r="C16" s="138">
-        <v>0</v>
-      </c>
-      <c r="D16" s="138">
-        <v>5000</v>
-      </c>
-      <c r="E16" s="138">
-        <v>10000</v>
-      </c>
-      <c r="F16" s="138">
-        <f>E16/100*L4</f>
-        <v>2500</v>
-      </c>
-      <c r="G16" s="132">
-        <f t="shared" si="0"/>
-        <v>-8125</v>
-      </c>
-      <c r="H16" s="139"/>
-      <c r="I16" s="140"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="147">
-        <v>40118</v>
-      </c>
-      <c r="C17" s="134">
-        <v>10000</v>
-      </c>
-      <c r="D17" s="134">
-        <v>5000</v>
-      </c>
-      <c r="E17" s="134">
-        <v>10000</v>
-      </c>
-      <c r="F17" s="134">
-        <f>E17/100*L4</f>
-        <v>2500</v>
-      </c>
-      <c r="G17" s="132">
-        <f t="shared" si="0"/>
-        <v>-5625</v>
-      </c>
-      <c r="H17" s="135">
-        <v>6</v>
-      </c>
-      <c r="I17" s="136" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="148">
-        <v>40148</v>
-      </c>
-      <c r="C18" s="141">
-        <v>5000</v>
-      </c>
-      <c r="D18" s="141">
-        <v>5000</v>
-      </c>
-      <c r="E18" s="141">
-        <v>10000</v>
-      </c>
-      <c r="F18" s="141">
-        <f>E18/100*L4</f>
-        <v>2500</v>
-      </c>
-      <c r="G18" s="133">
-        <f t="shared" si="0"/>
-        <v>-8125</v>
-      </c>
-      <c r="H18" s="142" t="s">
-        <v>174</v>
-      </c>
-      <c r="I18" s="143" t="s">
-        <v>179</v>
-      </c>
-    </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="130"/>
+      <c r="B19" s="128"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="150" t="s">
+      <c r="B20" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="151">
+      <c r="C20" s="149">
         <f>SUM(C3:C18)</f>
-        <v>86500</v>
-      </c>
-      <c r="D20" s="151">
+        <v>94500</v>
+      </c>
+      <c r="D20" s="149">
         <f t="shared" ref="D20:F20" si="1">SUM(D3:D18)</f>
         <v>71500</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="149">
         <f t="shared" si="1"/>
         <v>92500</v>
       </c>
-      <c r="F20" s="152">
+      <c r="F20" s="150">
         <f t="shared" si="1"/>
-        <v>23125</v>
+        <v>27750</v>
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="130"/>
+      <c r="B21" s="128"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="130"/>
+      <c r="B22" s="128"/>
+      <c r="F22" s="152">
+        <f>F20+D20</f>
+        <v>99250</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="30">
+      <c r="B2" s="144" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="142" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="142" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="142" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="135" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="142" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="143" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="145">
+        <v>39692</v>
+      </c>
+      <c r="C3" s="132">
+        <v>2500</v>
+      </c>
+      <c r="D3" s="132">
+        <v>2500</v>
+      </c>
+      <c r="E3" s="132">
+        <v>0</v>
+      </c>
+      <c r="F3" s="130">
+        <v>0</v>
+      </c>
+      <c r="G3" s="133">
+        <v>0</v>
+      </c>
+      <c r="H3" s="134"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="145">
+        <v>39722</v>
+      </c>
+      <c r="C4" s="136">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="136">
+        <v>3000</v>
+      </c>
+      <c r="E4" s="132">
+        <v>0</v>
+      </c>
+      <c r="F4" s="130">
+        <f t="shared" ref="F4:F18" si="0">F3+C4-D4-E4</f>
+        <v>7000</v>
+      </c>
+      <c r="G4" s="137">
+        <v>1</v>
+      </c>
+      <c r="H4" s="138"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="145">
+        <v>39753</v>
+      </c>
+      <c r="C5" s="132">
+        <v>9000</v>
+      </c>
+      <c r="D5" s="132">
+        <v>3000</v>
+      </c>
+      <c r="E5" s="132">
+        <v>0</v>
+      </c>
+      <c r="F5" s="130">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
+      <c r="G5" s="133">
+        <v>2</v>
+      </c>
+      <c r="H5" s="134" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="145">
+        <v>39783</v>
+      </c>
+      <c r="C6" s="136">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="136">
+        <v>3000</v>
+      </c>
+      <c r="E6" s="132">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="130">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="G6" s="137" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="138" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="145">
+        <v>39814</v>
+      </c>
+      <c r="C7" s="132">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="132">
+        <v>5000</v>
+      </c>
+      <c r="E7" s="132"/>
+      <c r="F7" s="130">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="G7" s="133"/>
+      <c r="H7" s="134" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="145">
+        <v>39845</v>
+      </c>
+      <c r="C8" s="136">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="136">
+        <v>7000</v>
+      </c>
+      <c r="E8" s="132">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="130">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="137">
+        <v>3</v>
+      </c>
+      <c r="H8" s="138" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="145">
+        <v>39873</v>
+      </c>
+      <c r="C9" s="132">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="132">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="132">
+        <v>0</v>
+      </c>
+      <c r="F9" s="130">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="133" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" s="134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="145">
+        <v>39904</v>
+      </c>
+      <c r="C10" s="136">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="136">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="132">
+        <v>0</v>
+      </c>
+      <c r="F10" s="130">
+        <f t="shared" si="0"/>
+        <v>-3000</v>
+      </c>
+      <c r="G10" s="137"/>
+      <c r="H10" s="138" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="145">
+        <v>39934</v>
+      </c>
+      <c r="C11" s="132">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="132">
+        <v>7000</v>
+      </c>
+      <c r="E11" s="132">
+        <v>0</v>
+      </c>
+      <c r="F11" s="130">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="133">
+        <v>4</v>
+      </c>
+      <c r="H11" s="134" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="145">
+        <v>39965</v>
+      </c>
+      <c r="C12" s="136">
+        <v>5000</v>
+      </c>
+      <c r="D12" s="136">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="132">
+        <v>0</v>
+      </c>
+      <c r="F12" s="130">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="137" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="138" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="145">
+        <v>39995</v>
+      </c>
+      <c r="C13" s="132">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="132">
+        <v>5000</v>
+      </c>
+      <c r="E13" s="132">
+        <v>0</v>
+      </c>
+      <c r="F13" s="130">
+        <f t="shared" si="0"/>
+        <v>-3000</v>
+      </c>
+      <c r="G13" s="133"/>
+      <c r="H13" s="134" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="145">
+        <v>40026</v>
+      </c>
+      <c r="C14" s="136">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="136">
+        <v>7000</v>
+      </c>
+      <c r="E14" s="132">
+        <v>0</v>
+      </c>
+      <c r="F14" s="130">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="137">
+        <v>5</v>
+      </c>
+      <c r="H14" s="138" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="145">
+        <v>40057</v>
+      </c>
+      <c r="C15" s="132">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="132">
+        <v>5000</v>
+      </c>
+      <c r="E15" s="132">
+        <v>0</v>
+      </c>
+      <c r="F15" s="130">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="133" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" s="134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="145">
+        <v>40087</v>
+      </c>
+      <c r="C16" s="136">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="136">
+        <v>5000</v>
+      </c>
+      <c r="E16" s="132">
+        <v>0</v>
+      </c>
+      <c r="F16" s="130">
+        <f t="shared" si="0"/>
+        <v>-3000</v>
+      </c>
+      <c r="G16" s="137"/>
+      <c r="H16" s="138" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="145">
+        <v>40118</v>
+      </c>
+      <c r="C17" s="132">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="132">
+        <v>7000</v>
+      </c>
+      <c r="E17" s="132">
+        <v>0</v>
+      </c>
+      <c r="F17" s="130">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="133">
+        <v>6</v>
+      </c>
+      <c r="H17" s="134" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="146">
+        <v>40148</v>
+      </c>
+      <c r="C18" s="139">
+        <v>5000</v>
+      </c>
+      <c r="D18" s="139">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="153">
+        <v>0</v>
+      </c>
+      <c r="F18" s="131">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="140" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="141" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="128"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="148" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="149">
+        <f>SUM(C3:C18)</f>
+        <v>94500</v>
+      </c>
+      <c r="D20" s="149">
+        <f t="shared" ref="D20:E20" si="1">SUM(D3:D18)</f>
+        <v>79500</v>
+      </c>
+      <c r="E20" s="150">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="E22" s="152">
+        <f>E20+D20</f>
+        <v>94500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>